--- a/data/raw/CHASSSYMM3AtlasLegends.xlsx
+++ b/data/raw/CHASSSYMM3AtlasLegends.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/brain_data/motor/figshare_10.6084:m9.figshare.7480232/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="6RDRwbbK2WN2nBXVPe3E7Obskwb1oeo9J0LgB3nfPBM="/>
     </ext>
   </extLst>
 </workbook>
@@ -1367,29 +1356,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1397,119 +1381,122 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFC6E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC65911"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFC65911"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B084"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFF4B084"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAEAAAA"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFAEAAAA"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -1533,79 +1520,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1746,27 +1673,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L334"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="10.56"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1830,19 +1753,19 @@
         <v>17</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1868,19 +1791,19 @@
         <v>17</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1906,19 +1829,19 @@
         <v>17</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="J4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1944,19 +1867,19 @@
         <v>17</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="J5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1982,19 +1905,19 @@
         <v>17</v>
       </c>
       <c r="I6" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="J6" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -2020,19 +1943,19 @@
         <v>17</v>
       </c>
       <c r="I7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="J7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -2058,19 +1981,19 @@
         <v>17</v>
       </c>
       <c r="I8" s="4">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="J8" s="4">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2096,19 +2019,19 @@
         <v>17</v>
       </c>
       <c r="I9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="J9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -2134,19 +2057,19 @@
         <v>17</v>
       </c>
       <c r="I10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="J10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2172,19 +2095,19 @@
         <v>17</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2210,19 +2133,19 @@
         <v>17</v>
       </c>
       <c r="I12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="J12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -2248,19 +2171,19 @@
         <v>17</v>
       </c>
       <c r="I13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="J13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,19 +2209,19 @@
         <v>17</v>
       </c>
       <c r="I14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="J14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,19 +2247,19 @@
         <v>17</v>
       </c>
       <c r="I15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="J15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2362,19 +2285,19 @@
         <v>17</v>
       </c>
       <c r="I16" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="J16" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2400,19 +2323,19 @@
         <v>17</v>
       </c>
       <c r="I17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="J17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2438,19 +2361,19 @@
         <v>17</v>
       </c>
       <c r="I18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="J18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -2476,19 +2399,19 @@
         <v>17</v>
       </c>
       <c r="I19" s="4">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="J19" s="4">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2514,19 +2437,19 @@
         <v>17</v>
       </c>
       <c r="I20" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="J20" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -2552,19 +2475,19 @@
         <v>17</v>
       </c>
       <c r="I21" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="J21" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -2590,19 +2513,19 @@
         <v>17</v>
       </c>
       <c r="I22" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="J22" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
@@ -2628,19 +2551,19 @@
         <v>17</v>
       </c>
       <c r="I23" s="4">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="J23" s="4">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2666,19 +2589,19 @@
         <v>17</v>
       </c>
       <c r="I24" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="J24" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -2704,19 +2627,19 @@
         <v>17</v>
       </c>
       <c r="I25" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="J25" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -2742,19 +2665,19 @@
         <v>17</v>
       </c>
       <c r="I26" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="J26" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -2780,19 +2703,19 @@
         <v>17</v>
       </c>
       <c r="I27" s="4">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="J27" s="4">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -2818,19 +2741,19 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="J28" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
@@ -2856,19 +2779,19 @@
         <v>17</v>
       </c>
       <c r="I29" s="2">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="J29" s="2">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
@@ -2894,19 +2817,19 @@
         <v>17</v>
       </c>
       <c r="I30" s="2">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="J30" s="2">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -2932,19 +2855,19 @@
         <v>17</v>
       </c>
       <c r="I31" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="J31" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -2970,19 +2893,19 @@
         <v>17</v>
       </c>
       <c r="I32" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="J32" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>84</v>
       </c>
@@ -3008,19 +2931,19 @@
         <v>17</v>
       </c>
       <c r="I33" s="4">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="J33" s="4">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -3046,19 +2969,19 @@
         <v>17</v>
       </c>
       <c r="I34" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="J34" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
@@ -3084,19 +3007,19 @@
         <v>17</v>
       </c>
       <c r="I35" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="J35" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -3122,19 +3045,19 @@
         <v>17</v>
       </c>
       <c r="I36" s="4">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="J36" s="4">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>93</v>
       </c>
@@ -3160,19 +3083,19 @@
         <v>17</v>
       </c>
       <c r="I37" s="4">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="J37" s="4">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>95</v>
       </c>
@@ -3198,19 +3121,19 @@
         <v>17</v>
       </c>
       <c r="I38" s="4">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="J38" s="4">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
@@ -3236,19 +3159,19 @@
         <v>17</v>
       </c>
       <c r="I39" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="J39" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -3274,19 +3197,19 @@
         <v>17</v>
       </c>
       <c r="I40" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="J40" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
@@ -3312,19 +3235,19 @@
         <v>17</v>
       </c>
       <c r="I41" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="J41" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>103</v>
       </c>
@@ -3350,19 +3273,19 @@
         <v>17</v>
       </c>
       <c r="I42" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="J42" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -3388,19 +3311,19 @@
         <v>108</v>
       </c>
       <c r="I43" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="J43" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
@@ -3426,19 +3349,19 @@
         <v>108</v>
       </c>
       <c r="I44" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="J44" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
@@ -3464,19 +3387,19 @@
         <v>108</v>
       </c>
       <c r="I45" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="J45" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -3502,19 +3425,19 @@
         <v>108</v>
       </c>
       <c r="I46" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="J46" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
@@ -3540,19 +3463,19 @@
         <v>108</v>
       </c>
       <c r="I47" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="J47" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>117</v>
       </c>
@@ -3578,19 +3501,19 @@
         <v>108</v>
       </c>
       <c r="I48" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="J48" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -3616,19 +3539,19 @@
         <v>108</v>
       </c>
       <c r="I49" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="J49" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -3654,19 +3577,19 @@
         <v>108</v>
       </c>
       <c r="I50" s="1">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="J50" s="1">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -3692,19 +3615,19 @@
         <v>108</v>
       </c>
       <c r="I51" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="J51" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>128</v>
       </c>
@@ -3730,19 +3653,19 @@
         <v>108</v>
       </c>
       <c r="I52" s="6">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="J52" s="6">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="K52" s="7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>131</v>
       </c>
@@ -3768,19 +3691,19 @@
         <v>108</v>
       </c>
       <c r="I53" s="1">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="J53" s="1">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>133</v>
       </c>
@@ -3806,19 +3729,19 @@
         <v>108</v>
       </c>
       <c r="I54" s="1">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="J54" s="1">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
@@ -3844,19 +3767,19 @@
         <v>108</v>
       </c>
       <c r="I55" s="1">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="J55" s="1">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -3882,19 +3805,19 @@
         <v>108</v>
       </c>
       <c r="I56" s="1">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="J56" s="1">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>139</v>
       </c>
@@ -3920,19 +3843,19 @@
         <v>108</v>
       </c>
       <c r="I57" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="J57" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>141</v>
       </c>
@@ -3958,19 +3881,19 @@
         <v>108</v>
       </c>
       <c r="I58" s="4">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="J58" s="4">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
@@ -3996,19 +3919,19 @@
         <v>108</v>
       </c>
       <c r="I59" s="1">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="J59" s="1">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>148</v>
       </c>
@@ -4034,19 +3957,19 @@
         <v>152</v>
       </c>
       <c r="I60" s="2">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="J60" s="2">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="K60" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
@@ -4072,19 +3995,19 @@
         <v>108</v>
       </c>
       <c r="I61" s="1">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="J61" s="1">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
@@ -4110,19 +4033,19 @@
         <v>152</v>
       </c>
       <c r="I62" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="J62" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>158</v>
       </c>
@@ -4148,19 +4071,19 @@
         <v>162</v>
       </c>
       <c r="I63" s="7">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="J63" s="7">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="K63" s="7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>163</v>
       </c>
@@ -4186,19 +4109,19 @@
         <v>162</v>
       </c>
       <c r="I64" s="2">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="J64" s="2">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="K64" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>166</v>
       </c>
@@ -4224,19 +4147,19 @@
         <v>162</v>
       </c>
       <c r="I65" s="4">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="J65" s="4">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>169</v>
       </c>
@@ -4262,19 +4185,19 @@
         <v>162</v>
       </c>
       <c r="I66" s="1">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="J66" s="1">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>171</v>
       </c>
@@ -4300,19 +4223,19 @@
         <v>162</v>
       </c>
       <c r="I67" s="1">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="J67" s="1">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>174</v>
       </c>
@@ -4338,19 +4261,19 @@
         <v>162</v>
       </c>
       <c r="I68" s="1">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="J68" s="1">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>176</v>
       </c>
@@ -4376,19 +4299,19 @@
         <v>162</v>
       </c>
       <c r="I69" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="J69" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>179</v>
       </c>
@@ -4414,19 +4337,19 @@
         <v>152</v>
       </c>
       <c r="I70" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="J70" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>184</v>
       </c>
@@ -4452,19 +4375,19 @@
         <v>152</v>
       </c>
       <c r="I71" s="4">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="J71" s="4">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>186</v>
       </c>
@@ -4490,19 +4413,19 @@
         <v>152</v>
       </c>
       <c r="I72" s="1">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="J72" s="1">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>189</v>
       </c>
@@ -4528,19 +4451,19 @@
         <v>152</v>
       </c>
       <c r="I73" s="2">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="J73" s="2">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="K73" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>193</v>
       </c>
@@ -4566,19 +4489,19 @@
         <v>152</v>
       </c>
       <c r="I74" s="4">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="J74" s="4">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>195</v>
       </c>
@@ -4604,19 +4527,19 @@
         <v>152</v>
       </c>
       <c r="I75" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="J75" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>197</v>
       </c>
@@ -4642,19 +4565,19 @@
         <v>152</v>
       </c>
       <c r="I76" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="J76" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>199</v>
       </c>
@@ -4680,19 +4603,19 @@
         <v>152</v>
       </c>
       <c r="I77" s="1">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="J77" s="1">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>201</v>
       </c>
@@ -4718,19 +4641,19 @@
         <v>152</v>
       </c>
       <c r="I78" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="J78" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>205</v>
       </c>
@@ -4756,19 +4679,19 @@
         <v>152</v>
       </c>
       <c r="I79" s="2">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="J79" s="2">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="K79" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
@@ -4794,19 +4717,19 @@
         <v>152</v>
       </c>
       <c r="I80" s="1">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="J80" s="1">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="K80" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>210</v>
       </c>
@@ -4832,19 +4755,19 @@
         <v>152</v>
       </c>
       <c r="I81" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="J81" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>215</v>
       </c>
@@ -4870,19 +4793,19 @@
         <v>218</v>
       </c>
       <c r="I82" s="4">
-        <v>81</v>
+        <v>81.0</v>
       </c>
       <c r="J82" s="4">
-        <v>81</v>
+        <v>81.0</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>219</v>
       </c>
@@ -4908,19 +4831,19 @@
         <v>218</v>
       </c>
       <c r="I83" s="4">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="J83" s="4">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="K83" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>221</v>
       </c>
@@ -4946,19 +4869,19 @@
         <v>218</v>
       </c>
       <c r="I84" s="1">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="J84" s="1">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="K84" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>224</v>
       </c>
@@ -4984,19 +4907,19 @@
         <v>218</v>
       </c>
       <c r="I85" s="1">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="J85" s="1">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>227</v>
       </c>
@@ -5022,19 +4945,19 @@
         <v>218</v>
       </c>
       <c r="I86" s="1">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="J86" s="1">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>229</v>
       </c>
@@ -5060,19 +4983,19 @@
         <v>218</v>
       </c>
       <c r="I87" s="1">
-        <v>86</v>
+        <v>86.0</v>
       </c>
       <c r="J87" s="1">
-        <v>86</v>
+        <v>86.0</v>
       </c>
       <c r="K87" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>231</v>
       </c>
@@ -5098,19 +5021,19 @@
         <v>218</v>
       </c>
       <c r="I88" s="1">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="J88" s="1">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>235</v>
       </c>
@@ -5136,19 +5059,19 @@
         <v>218</v>
       </c>
       <c r="I89" s="1">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="J89" s="1">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="K89" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>237</v>
       </c>
@@ -5174,19 +5097,19 @@
         <v>241</v>
       </c>
       <c r="I90" s="2">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="J90" s="2">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="K90" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>242</v>
       </c>
@@ -5212,19 +5135,19 @@
         <v>241</v>
       </c>
       <c r="I91" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="J91" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="K91" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L91" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>247</v>
       </c>
@@ -5250,19 +5173,19 @@
         <v>241</v>
       </c>
       <c r="I92" s="4">
-        <v>91</v>
+        <v>91.0</v>
       </c>
       <c r="J92" s="4">
-        <v>91</v>
+        <v>91.0</v>
       </c>
       <c r="K92" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>250</v>
       </c>
@@ -5288,19 +5211,19 @@
         <v>241</v>
       </c>
       <c r="I93" s="1">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="J93" s="1">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L93" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>252</v>
       </c>
@@ -5326,19 +5249,19 @@
         <v>241</v>
       </c>
       <c r="I94" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="J94" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>254</v>
       </c>
@@ -5364,19 +5287,19 @@
         <v>241</v>
       </c>
       <c r="I95" s="1">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="J95" s="1">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>256</v>
       </c>
@@ -5402,19 +5325,19 @@
         <v>241</v>
       </c>
       <c r="I96" s="1">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="J96" s="1">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="K96" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>258</v>
       </c>
@@ -5440,19 +5363,19 @@
         <v>241</v>
       </c>
       <c r="I97" s="1">
-        <v>96</v>
+        <v>96.0</v>
       </c>
       <c r="J97" s="1">
-        <v>96</v>
+        <v>96.0</v>
       </c>
       <c r="K97" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>261</v>
       </c>
@@ -5478,19 +5401,19 @@
         <v>241</v>
       </c>
       <c r="I98" s="1">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="J98" s="1">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="K98" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>263</v>
       </c>
@@ -5516,19 +5439,19 @@
         <v>241</v>
       </c>
       <c r="I99" s="1">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="J99" s="1">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="K99" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L99" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>265</v>
       </c>
@@ -5554,19 +5477,19 @@
         <v>241</v>
       </c>
       <c r="I100" s="4">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="J100" s="4">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="K100" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>268</v>
       </c>
@@ -5592,19 +5515,19 @@
         <v>241</v>
       </c>
       <c r="I101" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="J101" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="K101" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>271</v>
       </c>
@@ -5630,19 +5553,19 @@
         <v>241</v>
       </c>
       <c r="I102" s="1">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="J102" s="1">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="K102" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>273</v>
       </c>
@@ -5668,19 +5591,19 @@
         <v>241</v>
       </c>
       <c r="I103" s="1">
-        <v>102</v>
+        <v>102.0</v>
       </c>
       <c r="J103" s="1">
-        <v>102</v>
+        <v>102.0</v>
       </c>
       <c r="K103" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>279</v>
       </c>
@@ -5706,19 +5629,19 @@
         <v>241</v>
       </c>
       <c r="I104" s="1">
-        <v>103</v>
+        <v>103.0</v>
       </c>
       <c r="J104" s="1">
-        <v>103</v>
+        <v>103.0</v>
       </c>
       <c r="K104" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>282</v>
       </c>
@@ -5744,19 +5667,19 @@
         <v>241</v>
       </c>
       <c r="I105" s="2">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="J105" s="2">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="K105" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>284</v>
       </c>
@@ -5782,19 +5705,19 @@
         <v>241</v>
       </c>
       <c r="I106" s="2">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="J106" s="2">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="K106" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>286</v>
       </c>
@@ -5820,19 +5743,19 @@
         <v>241</v>
       </c>
       <c r="I107" s="1">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="J107" s="1">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L107" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>288</v>
       </c>
@@ -5858,19 +5781,19 @@
         <v>241</v>
       </c>
       <c r="I108" s="2">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="J108" s="2">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="K108" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>290</v>
       </c>
@@ -5896,19 +5819,19 @@
         <v>241</v>
       </c>
       <c r="I109" s="1">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="J109" s="1">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="K109" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L109" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>293</v>
       </c>
@@ -5934,19 +5857,19 @@
         <v>241</v>
       </c>
       <c r="I110" s="1">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="J110" s="1">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="K110" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L110" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>296</v>
       </c>
@@ -5972,19 +5895,19 @@
         <v>241</v>
       </c>
       <c r="I111" s="2">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="J111" s="2">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="K111" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>299</v>
       </c>
@@ -6010,19 +5933,19 @@
         <v>241</v>
       </c>
       <c r="I112" s="2">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="J112" s="2">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="K112" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>301</v>
       </c>
@@ -6048,19 +5971,19 @@
         <v>241</v>
       </c>
       <c r="I113" s="2">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="J113" s="2">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="K113" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>304</v>
       </c>
@@ -6086,19 +6009,19 @@
         <v>241</v>
       </c>
       <c r="I114" s="2">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="J114" s="2">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="K114" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>306</v>
       </c>
@@ -6124,19 +6047,19 @@
         <v>241</v>
       </c>
       <c r="I115" s="1">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="J115" s="1">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="K115" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L115" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>309</v>
       </c>
@@ -6162,19 +6085,19 @@
         <v>241</v>
       </c>
       <c r="I116" s="1">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="J116" s="1">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="K116" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L116" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>312</v>
       </c>
@@ -6200,19 +6123,19 @@
         <v>241</v>
       </c>
       <c r="I117" s="1">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="J117" s="1">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="K117" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>317</v>
       </c>
@@ -6238,19 +6161,19 @@
         <v>241</v>
       </c>
       <c r="I118" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="J118" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="K118" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>320</v>
       </c>
@@ -6276,19 +6199,19 @@
         <v>324</v>
       </c>
       <c r="I119" s="1">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="J119" s="1">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="K119" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>325</v>
       </c>
@@ -6314,19 +6237,19 @@
         <v>324</v>
       </c>
       <c r="I120" s="1">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="J120" s="1">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="K120" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>327</v>
       </c>
@@ -6352,19 +6275,19 @@
         <v>324</v>
       </c>
       <c r="I121" s="4">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="J121" s="4">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="K121" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>329</v>
       </c>
@@ -6390,19 +6313,19 @@
         <v>324</v>
       </c>
       <c r="I122" s="4">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="J122" s="4">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="K122" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>331</v>
       </c>
@@ -6428,19 +6351,19 @@
         <v>324</v>
       </c>
       <c r="I123" s="4">
-        <v>122</v>
+        <v>122.0</v>
       </c>
       <c r="J123" s="4">
-        <v>122</v>
+        <v>122.0</v>
       </c>
       <c r="K123" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>333</v>
       </c>
@@ -6466,19 +6389,19 @@
         <v>324</v>
       </c>
       <c r="I124" s="1">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="J124" s="1">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="K124" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>335</v>
       </c>
@@ -6504,19 +6427,19 @@
         <v>324</v>
       </c>
       <c r="I125" s="1">
-        <v>124</v>
+        <v>124.0</v>
       </c>
       <c r="J125" s="1">
-        <v>124</v>
+        <v>124.0</v>
       </c>
       <c r="K125" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>337</v>
       </c>
@@ -6542,19 +6465,19 @@
         <v>324</v>
       </c>
       <c r="I126" s="1">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="J126" s="1">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="K126" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>339</v>
       </c>
@@ -6580,19 +6503,19 @@
         <v>324</v>
       </c>
       <c r="I127" s="1">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="J127" s="1">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="K127" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>341</v>
       </c>
@@ -6618,19 +6541,19 @@
         <v>324</v>
       </c>
       <c r="I128" s="1">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="J128" s="1">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>344</v>
       </c>
@@ -6656,19 +6579,19 @@
         <v>324</v>
       </c>
       <c r="I129" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="J129" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>346</v>
       </c>
@@ -6694,19 +6617,19 @@
         <v>324</v>
       </c>
       <c r="I130" s="1">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="J130" s="1">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="K130" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>348</v>
       </c>
@@ -6732,19 +6655,19 @@
         <v>324</v>
       </c>
       <c r="I131" s="1">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="J131" s="1">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L131" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>350</v>
       </c>
@@ -6770,19 +6693,19 @@
         <v>324</v>
       </c>
       <c r="I132" s="1">
-        <v>131</v>
+        <v>131.0</v>
       </c>
       <c r="J132" s="1">
-        <v>131</v>
+        <v>131.0</v>
       </c>
       <c r="K132" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>352</v>
       </c>
@@ -6808,19 +6731,19 @@
         <v>324</v>
       </c>
       <c r="I133" s="1">
-        <v>132</v>
+        <v>132.0</v>
       </c>
       <c r="J133" s="1">
-        <v>132</v>
+        <v>132.0</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L133" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>356</v>
       </c>
@@ -6846,19 +6769,19 @@
         <v>324</v>
       </c>
       <c r="I134" s="1">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="J134" s="1">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="K134" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L134" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>359</v>
       </c>
@@ -6884,19 +6807,19 @@
         <v>324</v>
       </c>
       <c r="I135" s="4">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="J135" s="4">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="K135" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L135" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>361</v>
       </c>
@@ -6922,19 +6845,19 @@
         <v>324</v>
       </c>
       <c r="I136" s="1">
-        <v>135</v>
+        <v>135.0</v>
       </c>
       <c r="J136" s="1">
-        <v>135</v>
+        <v>135.0</v>
       </c>
       <c r="K136" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L136" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>363</v>
       </c>
@@ -6960,19 +6883,19 @@
         <v>324</v>
       </c>
       <c r="I137" s="1">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="J137" s="1">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L137" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>365</v>
       </c>
@@ -6998,19 +6921,19 @@
         <v>324</v>
       </c>
       <c r="I138" s="2">
-        <v>137</v>
+        <v>137.0</v>
       </c>
       <c r="J138" s="2">
-        <v>137</v>
+        <v>137.0</v>
       </c>
       <c r="K138" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>367</v>
       </c>
@@ -7036,19 +6959,19 @@
         <v>324</v>
       </c>
       <c r="I139" s="1">
-        <v>138</v>
+        <v>138.0</v>
       </c>
       <c r="J139" s="1">
-        <v>138</v>
+        <v>138.0</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L139" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>369</v>
       </c>
@@ -7074,19 +6997,19 @@
         <v>324</v>
       </c>
       <c r="I140" s="1">
-        <v>139</v>
+        <v>139.0</v>
       </c>
       <c r="J140" s="1">
-        <v>139</v>
+        <v>139.0</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L140" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>371</v>
       </c>
@@ -7112,19 +7035,19 @@
         <v>324</v>
       </c>
       <c r="I141" s="1">
-        <v>140</v>
+        <v>140.0</v>
       </c>
       <c r="J141" s="1">
-        <v>140</v>
+        <v>140.0</v>
       </c>
       <c r="K141" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L141" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>373</v>
       </c>
@@ -7150,19 +7073,19 @@
         <v>324</v>
       </c>
       <c r="I142" s="1">
-        <v>141</v>
+        <v>141.0</v>
       </c>
       <c r="J142" s="1">
-        <v>141</v>
+        <v>141.0</v>
       </c>
       <c r="K142" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L142" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>375</v>
       </c>
@@ -7188,19 +7111,19 @@
         <v>324</v>
       </c>
       <c r="I143" s="1">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="J143" s="1">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="K143" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L143" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>377</v>
       </c>
@@ -7226,19 +7149,19 @@
         <v>324</v>
       </c>
       <c r="I144" s="1">
-        <v>143</v>
+        <v>143.0</v>
       </c>
       <c r="J144" s="1">
-        <v>143</v>
+        <v>143.0</v>
       </c>
       <c r="K144" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L144" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>379</v>
       </c>
@@ -7264,19 +7187,19 @@
         <v>324</v>
       </c>
       <c r="I145" s="1">
-        <v>144</v>
+        <v>144.0</v>
       </c>
       <c r="J145" s="1">
-        <v>144</v>
+        <v>144.0</v>
       </c>
       <c r="K145" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L145" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>382</v>
       </c>
@@ -7302,19 +7225,19 @@
         <v>324</v>
       </c>
       <c r="I146" s="1">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="J146" s="1">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="K146" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L146" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>384</v>
       </c>
@@ -7340,19 +7263,19 @@
         <v>324</v>
       </c>
       <c r="I147" s="1">
-        <v>146</v>
+        <v>146.0</v>
       </c>
       <c r="J147" s="1">
-        <v>146</v>
+        <v>146.0</v>
       </c>
       <c r="K147" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L147" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>386</v>
       </c>
@@ -7378,19 +7301,19 @@
         <v>324</v>
       </c>
       <c r="I148" s="1">
-        <v>147</v>
+        <v>147.0</v>
       </c>
       <c r="J148" s="1">
-        <v>147</v>
+        <v>147.0</v>
       </c>
       <c r="K148" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L148" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>388</v>
       </c>
@@ -7416,19 +7339,19 @@
         <v>394</v>
       </c>
       <c r="I149" s="1">
-        <v>148</v>
+        <v>148.0</v>
       </c>
       <c r="J149" s="1">
-        <v>148</v>
+        <v>148.0</v>
       </c>
       <c r="K149" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L149" s="11" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>396</v>
       </c>
@@ -7454,19 +7377,19 @@
         <v>17</v>
       </c>
       <c r="I150" s="1">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="J150" s="1">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="K150" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>398</v>
       </c>
@@ -7492,19 +7415,19 @@
         <v>324</v>
       </c>
       <c r="I151" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="J151" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="K151" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L151" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>401</v>
       </c>
@@ -7530,19 +7453,19 @@
         <v>108</v>
       </c>
       <c r="I152" s="1">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="J152" s="1">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="K152" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>403</v>
       </c>
@@ -7568,19 +7491,19 @@
         <v>394</v>
       </c>
       <c r="I153" s="1">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="J153" s="1">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="K153" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L153" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>407</v>
       </c>
@@ -7606,19 +7529,19 @@
         <v>241</v>
       </c>
       <c r="I154" s="4">
-        <v>153</v>
+        <v>153.0</v>
       </c>
       <c r="J154" s="4">
-        <v>153</v>
+        <v>153.0</v>
       </c>
       <c r="K154" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L154" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>409</v>
       </c>
@@ -7644,19 +7567,19 @@
         <v>152</v>
       </c>
       <c r="I155" s="1">
-        <v>154</v>
+        <v>154.0</v>
       </c>
       <c r="J155" s="1">
-        <v>154</v>
+        <v>154.0</v>
       </c>
       <c r="K155" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>411</v>
       </c>
@@ -7682,19 +7605,19 @@
         <v>152</v>
       </c>
       <c r="I156" s="2">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="J156" s="2">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="K156" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>413</v>
       </c>
@@ -7720,19 +7643,19 @@
         <v>152</v>
       </c>
       <c r="I157" s="1">
-        <v>156</v>
+        <v>156.0</v>
       </c>
       <c r="J157" s="1">
-        <v>156</v>
+        <v>156.0</v>
       </c>
       <c r="K157" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L157" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>415</v>
       </c>
@@ -7758,19 +7681,19 @@
         <v>152</v>
       </c>
       <c r="I158" s="1">
-        <v>157</v>
+        <v>157.0</v>
       </c>
       <c r="J158" s="1">
-        <v>157</v>
+        <v>157.0</v>
       </c>
       <c r="K158" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>417</v>
       </c>
@@ -7796,19 +7719,19 @@
         <v>152</v>
       </c>
       <c r="I159" s="2">
-        <v>158</v>
+        <v>158.0</v>
       </c>
       <c r="J159" s="2">
-        <v>158</v>
+        <v>158.0</v>
       </c>
       <c r="K159" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>419</v>
       </c>
@@ -7834,19 +7757,19 @@
         <v>218</v>
       </c>
       <c r="I160" s="1">
-        <v>159</v>
+        <v>159.0</v>
       </c>
       <c r="J160" s="1">
-        <v>159</v>
+        <v>159.0</v>
       </c>
       <c r="K160" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L160" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>422</v>
       </c>
@@ -7872,19 +7795,19 @@
         <v>241</v>
       </c>
       <c r="I161" s="1">
-        <v>160</v>
+        <v>160.0</v>
       </c>
       <c r="J161" s="1">
-        <v>160</v>
+        <v>160.0</v>
       </c>
       <c r="K161" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L161" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>424</v>
       </c>
@@ -7910,19 +7833,19 @@
         <v>394</v>
       </c>
       <c r="I162" s="1">
-        <v>161</v>
+        <v>161.0</v>
       </c>
       <c r="J162" s="1">
-        <v>161</v>
+        <v>161.0</v>
       </c>
       <c r="K162" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L162" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>426</v>
       </c>
@@ -7946,19 +7869,19 @@
         <v>241</v>
       </c>
       <c r="I163" s="1">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="J163" s="1">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="K163" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L163" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>428</v>
       </c>
@@ -7984,19 +7907,19 @@
         <v>152</v>
       </c>
       <c r="I164" s="4">
-        <v>163</v>
+        <v>163.0</v>
       </c>
       <c r="J164" s="4">
-        <v>163</v>
+        <v>163.0</v>
       </c>
       <c r="K164" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L164" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>430</v>
       </c>
@@ -8022,19 +7945,19 @@
         <v>152</v>
       </c>
       <c r="I165" s="1">
-        <v>164</v>
+        <v>164.0</v>
       </c>
       <c r="J165" s="1">
-        <v>164</v>
+        <v>164.0</v>
       </c>
       <c r="K165" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>433</v>
       </c>
@@ -8060,19 +7983,19 @@
         <v>152</v>
       </c>
       <c r="I166" s="1">
-        <v>165</v>
+        <v>165.0</v>
       </c>
       <c r="J166" s="1">
-        <v>165</v>
+        <v>165.0</v>
       </c>
       <c r="K166" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L166" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -8098,19 +8021,19 @@
         <v>108</v>
       </c>
       <c r="I167" s="1">
-        <v>166</v>
+        <v>166.0</v>
       </c>
       <c r="J167" s="1">
-        <v>166</v>
+        <v>166.0</v>
       </c>
       <c r="K167" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L167" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>12</v>
       </c>
@@ -8136,19 +8059,19 @@
         <v>17</v>
       </c>
       <c r="I168" s="2">
-        <v>167</v>
+        <v>167.0</v>
       </c>
       <c r="J168" s="2">
-        <v>1001</v>
+        <v>1001.0</v>
       </c>
       <c r="K168" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>19</v>
       </c>
@@ -8174,19 +8097,19 @@
         <v>17</v>
       </c>
       <c r="I169" s="2">
-        <v>168</v>
+        <v>168.0</v>
       </c>
       <c r="J169" s="2">
-        <v>1002</v>
+        <v>1002.0</v>
       </c>
       <c r="K169" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L169" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -8212,19 +8135,19 @@
         <v>17</v>
       </c>
       <c r="I170" s="1">
-        <v>169</v>
+        <v>169.0</v>
       </c>
       <c r="J170" s="1">
-        <v>1003</v>
+        <v>1003.0</v>
       </c>
       <c r="K170" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>23</v>
       </c>
@@ -8250,19 +8173,19 @@
         <v>17</v>
       </c>
       <c r="I171" s="1">
-        <v>170</v>
+        <v>170.0</v>
       </c>
       <c r="J171" s="1">
-        <v>1004</v>
+        <v>1004.0</v>
       </c>
       <c r="K171" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>25</v>
       </c>
@@ -8288,19 +8211,19 @@
         <v>17</v>
       </c>
       <c r="I172" s="2">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="J172" s="2">
-        <v>1005</v>
+        <v>1005.0</v>
       </c>
       <c r="K172" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L172" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>27</v>
       </c>
@@ -8326,19 +8249,19 @@
         <v>17</v>
       </c>
       <c r="I173" s="2">
-        <v>172</v>
+        <v>172.0</v>
       </c>
       <c r="J173" s="2">
-        <v>1006</v>
+        <v>1006.0</v>
       </c>
       <c r="K173" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
@@ -8364,19 +8287,19 @@
         <v>17</v>
       </c>
       <c r="I174" s="1">
-        <v>173</v>
+        <v>173.0</v>
       </c>
       <c r="J174" s="1">
-        <v>1007</v>
+        <v>1007.0</v>
       </c>
       <c r="K174" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>31</v>
       </c>
@@ -8402,19 +8325,19 @@
         <v>17</v>
       </c>
       <c r="I175" s="1">
-        <v>174</v>
+        <v>174.0</v>
       </c>
       <c r="J175" s="1">
-        <v>1008</v>
+        <v>1008.0</v>
       </c>
       <c r="K175" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>33</v>
       </c>
@@ -8440,19 +8363,19 @@
         <v>17</v>
       </c>
       <c r="I176" s="1">
-        <v>175</v>
+        <v>175.0</v>
       </c>
       <c r="J176" s="1">
-        <v>1009</v>
+        <v>1009.0</v>
       </c>
       <c r="K176" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>35</v>
       </c>
@@ -8478,19 +8401,19 @@
         <v>17</v>
       </c>
       <c r="I177" s="1">
-        <v>176</v>
+        <v>176.0</v>
       </c>
       <c r="J177" s="1">
-        <v>1010</v>
+        <v>1010.0</v>
       </c>
       <c r="K177" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>38</v>
       </c>
@@ -8516,19 +8439,19 @@
         <v>17</v>
       </c>
       <c r="I178" s="1">
-        <v>177</v>
+        <v>177.0</v>
       </c>
       <c r="J178" s="1">
-        <v>1011</v>
+        <v>1011.0</v>
       </c>
       <c r="K178" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>41</v>
       </c>
@@ -8554,19 +8477,19 @@
         <v>17</v>
       </c>
       <c r="I179" s="1">
-        <v>178</v>
+        <v>178.0</v>
       </c>
       <c r="J179" s="1">
-        <v>1012</v>
+        <v>1012.0</v>
       </c>
       <c r="K179" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>43</v>
       </c>
@@ -8592,19 +8515,19 @@
         <v>17</v>
       </c>
       <c r="I180" s="2">
-        <v>179</v>
+        <v>179.0</v>
       </c>
       <c r="J180" s="2">
-        <v>1013</v>
+        <v>1013.0</v>
       </c>
       <c r="K180" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>46</v>
       </c>
@@ -8630,19 +8553,19 @@
         <v>17</v>
       </c>
       <c r="I181" s="1">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="J181" s="1">
-        <v>1014</v>
+        <v>1014.0</v>
       </c>
       <c r="K181" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>48</v>
       </c>
@@ -8668,19 +8591,19 @@
         <v>17</v>
       </c>
       <c r="I182" s="1">
-        <v>181</v>
+        <v>181.0</v>
       </c>
       <c r="J182" s="1">
-        <v>1015</v>
+        <v>1015.0</v>
       </c>
       <c r="K182" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>50</v>
       </c>
@@ -8706,19 +8629,19 @@
         <v>17</v>
       </c>
       <c r="I183" s="1">
-        <v>182</v>
+        <v>182.0</v>
       </c>
       <c r="J183" s="1">
-        <v>1016</v>
+        <v>1016.0</v>
       </c>
       <c r="K183" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>53</v>
       </c>
@@ -8744,19 +8667,19 @@
         <v>17</v>
       </c>
       <c r="I184" s="1">
-        <v>183</v>
+        <v>183.0</v>
       </c>
       <c r="J184" s="1">
-        <v>1017</v>
+        <v>1017.0</v>
       </c>
       <c r="K184" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>55</v>
       </c>
@@ -8782,19 +8705,19 @@
         <v>17</v>
       </c>
       <c r="I185" s="1">
-        <v>184</v>
+        <v>184.0</v>
       </c>
       <c r="J185" s="1">
-        <v>1018</v>
+        <v>1018.0</v>
       </c>
       <c r="K185" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>58</v>
       </c>
@@ -8820,19 +8743,19 @@
         <v>17</v>
       </c>
       <c r="I186" s="1">
-        <v>185</v>
+        <v>185.0</v>
       </c>
       <c r="J186" s="1">
-        <v>1019</v>
+        <v>1019.0</v>
       </c>
       <c r="K186" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>60</v>
       </c>
@@ -8858,19 +8781,19 @@
         <v>17</v>
       </c>
       <c r="I187" s="1">
-        <v>186</v>
+        <v>186.0</v>
       </c>
       <c r="J187" s="1">
-        <v>1020</v>
+        <v>1020.0</v>
       </c>
       <c r="K187" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>62</v>
       </c>
@@ -8896,19 +8819,19 @@
         <v>17</v>
       </c>
       <c r="I188" s="1">
-        <v>187</v>
+        <v>187.0</v>
       </c>
       <c r="J188" s="1">
-        <v>1021</v>
+        <v>1021.0</v>
       </c>
       <c r="K188" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>64</v>
       </c>
@@ -8934,19 +8857,19 @@
         <v>17</v>
       </c>
       <c r="I189" s="1">
-        <v>188</v>
+        <v>188.0</v>
       </c>
       <c r="J189" s="1">
-        <v>1022</v>
+        <v>1022.0</v>
       </c>
       <c r="K189" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>66</v>
       </c>
@@ -8972,19 +8895,19 @@
         <v>17</v>
       </c>
       <c r="I190" s="1">
-        <v>189</v>
+        <v>189.0</v>
       </c>
       <c r="J190" s="1">
-        <v>1023</v>
+        <v>1023.0</v>
       </c>
       <c r="K190" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>68</v>
       </c>
@@ -9010,19 +8933,19 @@
         <v>17</v>
       </c>
       <c r="I191" s="2">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="J191" s="2">
-        <v>1024</v>
+        <v>1024.0</v>
       </c>
       <c r="K191" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>70</v>
       </c>
@@ -9048,19 +8971,19 @@
         <v>17</v>
       </c>
       <c r="I192" s="2">
-        <v>191</v>
+        <v>191.0</v>
       </c>
       <c r="J192" s="2">
-        <v>1025</v>
+        <v>1025.0</v>
       </c>
       <c r="K192" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>72</v>
       </c>
@@ -9086,19 +9009,19 @@
         <v>17</v>
       </c>
       <c r="I193" s="1">
-        <v>192</v>
+        <v>192.0</v>
       </c>
       <c r="J193" s="1">
-        <v>1026</v>
+        <v>1026.0</v>
       </c>
       <c r="K193" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>74</v>
       </c>
@@ -9124,19 +9047,19 @@
         <v>17</v>
       </c>
       <c r="I194" s="1">
-        <v>193</v>
+        <v>193.0</v>
       </c>
       <c r="J194" s="1">
-        <v>1027</v>
+        <v>1027.0</v>
       </c>
       <c r="K194" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>76</v>
       </c>
@@ -9162,19 +9085,19 @@
         <v>17</v>
       </c>
       <c r="I195" s="1">
-        <v>194</v>
+        <v>194.0</v>
       </c>
       <c r="J195" s="1">
-        <v>1028</v>
+        <v>1028.0</v>
       </c>
       <c r="K195" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>78</v>
       </c>
@@ -9200,19 +9123,19 @@
         <v>17</v>
       </c>
       <c r="I196" s="2">
-        <v>195</v>
+        <v>195.0</v>
       </c>
       <c r="J196" s="2">
-        <v>1029</v>
+        <v>1029.0</v>
       </c>
       <c r="K196" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>80</v>
       </c>
@@ -9238,19 +9161,19 @@
         <v>17</v>
       </c>
       <c r="I197" s="1">
-        <v>196</v>
+        <v>196.0</v>
       </c>
       <c r="J197" s="1">
-        <v>1030</v>
+        <v>1030.0</v>
       </c>
       <c r="K197" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>82</v>
       </c>
@@ -9276,19 +9199,19 @@
         <v>17</v>
       </c>
       <c r="I198" s="2">
-        <v>197</v>
+        <v>197.0</v>
       </c>
       <c r="J198" s="2">
-        <v>1031</v>
+        <v>1031.0</v>
       </c>
       <c r="K198" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>84</v>
       </c>
@@ -9314,19 +9237,19 @@
         <v>17</v>
       </c>
       <c r="I199" s="1">
-        <v>198</v>
+        <v>198.0</v>
       </c>
       <c r="J199" s="1">
-        <v>1032</v>
+        <v>1032.0</v>
       </c>
       <c r="K199" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>86</v>
       </c>
@@ -9352,19 +9275,19 @@
         <v>17</v>
       </c>
       <c r="I200" s="1">
-        <v>199</v>
+        <v>199.0</v>
       </c>
       <c r="J200" s="1">
-        <v>1033</v>
+        <v>1033.0</v>
       </c>
       <c r="K200" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>88</v>
       </c>
@@ -9390,19 +9313,19 @@
         <v>17</v>
       </c>
       <c r="I201" s="1">
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="J201" s="1">
-        <v>1034</v>
+        <v>1034.0</v>
       </c>
       <c r="K201" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>90</v>
       </c>
@@ -9428,19 +9351,19 @@
         <v>17</v>
       </c>
       <c r="I202" s="2">
-        <v>201</v>
+        <v>201.0</v>
       </c>
       <c r="J202" s="2">
-        <v>1035</v>
+        <v>1035.0</v>
       </c>
       <c r="K202" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L202" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>93</v>
       </c>
@@ -9466,19 +9389,19 @@
         <v>17</v>
       </c>
       <c r="I203" s="1">
-        <v>202</v>
+        <v>202.0</v>
       </c>
       <c r="J203" s="1">
-        <v>1036</v>
+        <v>1036.0</v>
       </c>
       <c r="K203" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>95</v>
       </c>
@@ -9504,19 +9427,19 @@
         <v>17</v>
       </c>
       <c r="I204" s="1">
-        <v>203</v>
+        <v>203.0</v>
       </c>
       <c r="J204" s="1">
-        <v>1037</v>
+        <v>1037.0</v>
       </c>
       <c r="K204" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>97</v>
       </c>
@@ -9542,19 +9465,19 @@
         <v>17</v>
       </c>
       <c r="I205" s="1">
-        <v>204</v>
+        <v>204.0</v>
       </c>
       <c r="J205" s="1">
-        <v>1038</v>
+        <v>1038.0</v>
       </c>
       <c r="K205" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>99</v>
       </c>
@@ -9580,19 +9503,19 @@
         <v>17</v>
       </c>
       <c r="I206" s="1">
-        <v>205</v>
+        <v>205.0</v>
       </c>
       <c r="J206" s="1">
-        <v>1039</v>
+        <v>1039.0</v>
       </c>
       <c r="K206" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>101</v>
       </c>
@@ -9618,19 +9541,19 @@
         <v>17</v>
       </c>
       <c r="I207" s="1">
-        <v>206</v>
+        <v>206.0</v>
       </c>
       <c r="J207" s="1">
-        <v>1040</v>
+        <v>1040.0</v>
       </c>
       <c r="K207" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L207" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>103</v>
       </c>
@@ -9656,19 +9579,19 @@
         <v>17</v>
       </c>
       <c r="I208" s="1">
-        <v>207</v>
+        <v>207.0</v>
       </c>
       <c r="J208" s="1">
-        <v>1041</v>
+        <v>1041.0</v>
       </c>
       <c r="K208" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>105</v>
       </c>
@@ -9694,19 +9617,19 @@
         <v>108</v>
       </c>
       <c r="I209" s="1">
-        <v>208</v>
+        <v>208.0</v>
       </c>
       <c r="J209" s="1">
-        <v>1042</v>
+        <v>1042.0</v>
       </c>
       <c r="K209" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L209" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>109</v>
       </c>
@@ -9732,19 +9655,19 @@
         <v>108</v>
       </c>
       <c r="I210" s="1">
-        <v>209</v>
+        <v>209.0</v>
       </c>
       <c r="J210" s="1">
-        <v>1043</v>
+        <v>1043.0</v>
       </c>
       <c r="K210" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L210" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>111</v>
       </c>
@@ -9770,19 +9693,19 @@
         <v>108</v>
       </c>
       <c r="I211" s="1">
-        <v>210</v>
+        <v>210.0</v>
       </c>
       <c r="J211" s="1">
-        <v>1044</v>
+        <v>1044.0</v>
       </c>
       <c r="K211" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L211" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>113</v>
       </c>
@@ -9808,19 +9731,19 @@
         <v>108</v>
       </c>
       <c r="I212" s="1">
-        <v>211</v>
+        <v>211.0</v>
       </c>
       <c r="J212" s="1">
-        <v>1045</v>
+        <v>1045.0</v>
       </c>
       <c r="K212" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L212" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>115</v>
       </c>
@@ -9846,19 +9769,19 @@
         <v>108</v>
       </c>
       <c r="I213" s="1">
-        <v>212</v>
+        <v>212.0</v>
       </c>
       <c r="J213" s="1">
-        <v>1046</v>
+        <v>1046.0</v>
       </c>
       <c r="K213" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L213" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>117</v>
       </c>
@@ -9884,19 +9807,19 @@
         <v>108</v>
       </c>
       <c r="I214" s="1">
-        <v>213</v>
+        <v>213.0</v>
       </c>
       <c r="J214" s="1">
-        <v>1047</v>
+        <v>1047.0</v>
       </c>
       <c r="K214" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L214" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>121</v>
       </c>
@@ -9922,19 +9845,19 @@
         <v>108</v>
       </c>
       <c r="I215" s="1">
-        <v>214</v>
+        <v>214.0</v>
       </c>
       <c r="J215" s="1">
-        <v>1048</v>
+        <v>1048.0</v>
       </c>
       <c r="K215" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L215" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>123</v>
       </c>
@@ -9960,19 +9883,19 @@
         <v>108</v>
       </c>
       <c r="I216" s="1">
-        <v>215</v>
+        <v>215.0</v>
       </c>
       <c r="J216" s="1">
-        <v>1049</v>
+        <v>1049.0</v>
       </c>
       <c r="K216" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L216" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>126</v>
       </c>
@@ -9998,19 +9921,19 @@
         <v>108</v>
       </c>
       <c r="I217" s="1">
-        <v>216</v>
+        <v>216.0</v>
       </c>
       <c r="J217" s="1">
-        <v>1050</v>
+        <v>1050.0</v>
       </c>
       <c r="K217" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L217" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>128</v>
       </c>
@@ -10036,19 +9959,19 @@
         <v>108</v>
       </c>
       <c r="I218" s="1">
-        <v>217</v>
+        <v>217.0</v>
       </c>
       <c r="J218" s="1">
-        <v>1051</v>
+        <v>1051.0</v>
       </c>
       <c r="K218" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L218" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>131</v>
       </c>
@@ -10074,19 +9997,19 @@
         <v>108</v>
       </c>
       <c r="I219" s="1">
-        <v>218</v>
+        <v>218.0</v>
       </c>
       <c r="J219" s="1">
-        <v>1052</v>
+        <v>1052.0</v>
       </c>
       <c r="K219" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L219" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>133</v>
       </c>
@@ -10112,19 +10035,19 @@
         <v>108</v>
       </c>
       <c r="I220" s="1">
-        <v>219</v>
+        <v>219.0</v>
       </c>
       <c r="J220" s="1">
-        <v>1053</v>
+        <v>1053.0</v>
       </c>
       <c r="K220" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L220" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>135</v>
       </c>
@@ -10150,19 +10073,19 @@
         <v>108</v>
       </c>
       <c r="I221" s="1">
-        <v>220</v>
+        <v>220.0</v>
       </c>
       <c r="J221" s="1">
-        <v>1054</v>
+        <v>1054.0</v>
       </c>
       <c r="K221" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L221" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>137</v>
       </c>
@@ -10188,19 +10111,19 @@
         <v>108</v>
       </c>
       <c r="I222" s="1">
-        <v>221</v>
+        <v>221.0</v>
       </c>
       <c r="J222" s="1">
-        <v>1055</v>
+        <v>1055.0</v>
       </c>
       <c r="K222" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L222" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>139</v>
       </c>
@@ -10226,19 +10149,19 @@
         <v>108</v>
       </c>
       <c r="I223" s="1">
-        <v>222</v>
+        <v>222.0</v>
       </c>
       <c r="J223" s="1">
-        <v>1056</v>
+        <v>1056.0</v>
       </c>
       <c r="K223" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L223" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>141</v>
       </c>
@@ -10264,19 +10187,19 @@
         <v>108</v>
       </c>
       <c r="I224" s="1">
-        <v>223</v>
+        <v>223.0</v>
       </c>
       <c r="J224" s="1">
-        <v>1057</v>
+        <v>1057.0</v>
       </c>
       <c r="K224" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L224" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>145</v>
       </c>
@@ -10302,19 +10225,19 @@
         <v>108</v>
       </c>
       <c r="I225" s="1">
-        <v>224</v>
+        <v>224.0</v>
       </c>
       <c r="J225" s="1">
-        <v>1058</v>
+        <v>1058.0</v>
       </c>
       <c r="K225" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L225" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>148</v>
       </c>
@@ -10340,19 +10263,19 @@
         <v>152</v>
       </c>
       <c r="I226" s="1">
-        <v>225</v>
+        <v>225.0</v>
       </c>
       <c r="J226" s="1">
-        <v>1059</v>
+        <v>1059.0</v>
       </c>
       <c r="K226" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L226" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>153</v>
       </c>
@@ -10378,19 +10301,19 @@
         <v>108</v>
       </c>
       <c r="I227" s="1">
-        <v>226</v>
+        <v>226.0</v>
       </c>
       <c r="J227" s="1">
-        <v>1060</v>
+        <v>1060.0</v>
       </c>
       <c r="K227" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L227" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>155</v>
       </c>
@@ -10416,19 +10339,19 @@
         <v>152</v>
       </c>
       <c r="I228" s="1">
-        <v>227</v>
+        <v>227.0</v>
       </c>
       <c r="J228" s="1">
-        <v>1061</v>
+        <v>1061.0</v>
       </c>
       <c r="K228" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L228" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>158</v>
       </c>
@@ -10454,19 +10377,19 @@
         <v>162</v>
       </c>
       <c r="I229" s="1">
-        <v>228</v>
+        <v>228.0</v>
       </c>
       <c r="J229" s="1">
-        <v>1062</v>
+        <v>1062.0</v>
       </c>
       <c r="K229" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L229" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>163</v>
       </c>
@@ -10492,19 +10415,19 @@
         <v>162</v>
       </c>
       <c r="I230" s="2">
-        <v>229</v>
+        <v>229.0</v>
       </c>
       <c r="J230" s="2">
-        <v>1063</v>
+        <v>1063.0</v>
       </c>
       <c r="K230" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L230" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>166</v>
       </c>
@@ -10530,19 +10453,19 @@
         <v>162</v>
       </c>
       <c r="I231" s="1">
-        <v>230</v>
+        <v>230.0</v>
       </c>
       <c r="J231" s="1">
-        <v>1064</v>
+        <v>1064.0</v>
       </c>
       <c r="K231" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L231" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>169</v>
       </c>
@@ -10568,19 +10491,19 @@
         <v>162</v>
       </c>
       <c r="I232" s="1">
-        <v>231</v>
+        <v>231.0</v>
       </c>
       <c r="J232" s="1">
-        <v>1065</v>
+        <v>1065.0</v>
       </c>
       <c r="K232" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L232" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>171</v>
       </c>
@@ -10606,19 +10529,19 @@
         <v>162</v>
       </c>
       <c r="I233" s="1">
-        <v>232</v>
+        <v>232.0</v>
       </c>
       <c r="J233" s="1">
-        <v>1066</v>
+        <v>1066.0</v>
       </c>
       <c r="K233" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L233" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>174</v>
       </c>
@@ -10644,19 +10567,19 @@
         <v>162</v>
       </c>
       <c r="I234" s="1">
-        <v>233</v>
+        <v>233.0</v>
       </c>
       <c r="J234" s="1">
-        <v>1067</v>
+        <v>1067.0</v>
       </c>
       <c r="K234" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L234" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>176</v>
       </c>
@@ -10682,19 +10605,19 @@
         <v>162</v>
       </c>
       <c r="I235" s="1">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="J235" s="1">
-        <v>1068</v>
+        <v>1068.0</v>
       </c>
       <c r="K235" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L235" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>179</v>
       </c>
@@ -10720,19 +10643,19 @@
         <v>152</v>
       </c>
       <c r="I236" s="1">
-        <v>235</v>
+        <v>235.0</v>
       </c>
       <c r="J236" s="1">
-        <v>1069</v>
+        <v>1069.0</v>
       </c>
       <c r="K236" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L236" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>184</v>
       </c>
@@ -10758,19 +10681,19 @@
         <v>152</v>
       </c>
       <c r="I237" s="1">
-        <v>236</v>
+        <v>236.0</v>
       </c>
       <c r="J237" s="1">
-        <v>1070</v>
+        <v>1070.0</v>
       </c>
       <c r="K237" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L237" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>186</v>
       </c>
@@ -10796,19 +10719,19 @@
         <v>152</v>
       </c>
       <c r="I238" s="2">
-        <v>237</v>
+        <v>237.0</v>
       </c>
       <c r="J238" s="2">
-        <v>1071</v>
+        <v>1071.0</v>
       </c>
       <c r="K238" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L238" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>189</v>
       </c>
@@ -10834,19 +10757,19 @@
         <v>152</v>
       </c>
       <c r="I239" s="1">
-        <v>238</v>
+        <v>238.0</v>
       </c>
       <c r="J239" s="1">
-        <v>1072</v>
+        <v>1072.0</v>
       </c>
       <c r="K239" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L239" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>193</v>
       </c>
@@ -10872,19 +10795,19 @@
         <v>152</v>
       </c>
       <c r="I240" s="1">
-        <v>239</v>
+        <v>239.0</v>
       </c>
       <c r="J240" s="1">
-        <v>1073</v>
+        <v>1073.0</v>
       </c>
       <c r="K240" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L240" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>195</v>
       </c>
@@ -10910,19 +10833,19 @@
         <v>152</v>
       </c>
       <c r="I241" s="1">
-        <v>240</v>
+        <v>240.0</v>
       </c>
       <c r="J241" s="1">
-        <v>1074</v>
+        <v>1074.0</v>
       </c>
       <c r="K241" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L241" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>197</v>
       </c>
@@ -10948,19 +10871,19 @@
         <v>152</v>
       </c>
       <c r="I242" s="2">
-        <v>241</v>
+        <v>241.0</v>
       </c>
       <c r="J242" s="2">
-        <v>1075</v>
+        <v>1075.0</v>
       </c>
       <c r="K242" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L242" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>199</v>
       </c>
@@ -10986,19 +10909,19 @@
         <v>152</v>
       </c>
       <c r="I243" s="1">
-        <v>242</v>
+        <v>242.0</v>
       </c>
       <c r="J243" s="1">
-        <v>1076</v>
+        <v>1076.0</v>
       </c>
       <c r="K243" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L243" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>201</v>
       </c>
@@ -11024,19 +10947,19 @@
         <v>152</v>
       </c>
       <c r="I244" s="1">
-        <v>243</v>
+        <v>243.0</v>
       </c>
       <c r="J244" s="1">
-        <v>1077</v>
+        <v>1077.0</v>
       </c>
       <c r="K244" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L244" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>205</v>
       </c>
@@ -11062,19 +10985,19 @@
         <v>152</v>
       </c>
       <c r="I245" s="2">
-        <v>244</v>
+        <v>244.0</v>
       </c>
       <c r="J245" s="2">
-        <v>1078</v>
+        <v>1078.0</v>
       </c>
       <c r="K245" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L245" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>207</v>
       </c>
@@ -11100,19 +11023,19 @@
         <v>152</v>
       </c>
       <c r="I246" s="1">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="J246" s="1">
-        <v>1079</v>
+        <v>1079.0</v>
       </c>
       <c r="K246" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L246" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>210</v>
       </c>
@@ -11138,19 +11061,19 @@
         <v>152</v>
       </c>
       <c r="I247" s="1">
-        <v>246</v>
+        <v>246.0</v>
       </c>
       <c r="J247" s="1">
-        <v>1080</v>
+        <v>1080.0</v>
       </c>
       <c r="K247" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L247" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>215</v>
       </c>
@@ -11176,19 +11099,19 @@
         <v>218</v>
       </c>
       <c r="I248" s="2">
-        <v>247</v>
+        <v>247.0</v>
       </c>
       <c r="J248" s="2">
-        <v>1081</v>
+        <v>1081.0</v>
       </c>
       <c r="K248" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L248" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>219</v>
       </c>
@@ -11214,19 +11137,19 @@
         <v>218</v>
       </c>
       <c r="I249" s="1">
-        <v>248</v>
+        <v>248.0</v>
       </c>
       <c r="J249" s="1">
-        <v>1082</v>
+        <v>1082.0</v>
       </c>
       <c r="K249" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L249" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>221</v>
       </c>
@@ -11252,19 +11175,19 @@
         <v>218</v>
       </c>
       <c r="I250" s="1">
-        <v>249</v>
+        <v>249.0</v>
       </c>
       <c r="J250" s="1">
-        <v>1083</v>
+        <v>1083.0</v>
       </c>
       <c r="K250" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L250" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>224</v>
       </c>
@@ -11290,19 +11213,19 @@
         <v>218</v>
       </c>
       <c r="I251" s="1">
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="J251" s="1">
-        <v>1084</v>
+        <v>1084.0</v>
       </c>
       <c r="K251" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L251" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>227</v>
       </c>
@@ -11328,19 +11251,19 @@
         <v>218</v>
       </c>
       <c r="I252" s="1">
-        <v>251</v>
+        <v>251.0</v>
       </c>
       <c r="J252" s="1">
-        <v>1085</v>
+        <v>1085.0</v>
       </c>
       <c r="K252" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L252" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>229</v>
       </c>
@@ -11366,19 +11289,19 @@
         <v>218</v>
       </c>
       <c r="I253" s="1">
-        <v>252</v>
+        <v>252.0</v>
       </c>
       <c r="J253" s="1">
-        <v>1086</v>
+        <v>1086.0</v>
       </c>
       <c r="K253" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L253" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>231</v>
       </c>
@@ -11404,19 +11327,19 @@
         <v>218</v>
       </c>
       <c r="I254" s="1">
-        <v>253</v>
+        <v>253.0</v>
       </c>
       <c r="J254" s="1">
-        <v>1087</v>
+        <v>1087.0</v>
       </c>
       <c r="K254" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L254" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>235</v>
       </c>
@@ -11442,19 +11365,19 @@
         <v>218</v>
       </c>
       <c r="I255" s="1">
-        <v>254</v>
+        <v>254.0</v>
       </c>
       <c r="J255" s="1">
-        <v>1088</v>
+        <v>1088.0</v>
       </c>
       <c r="K255" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L255" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>237</v>
       </c>
@@ -11480,19 +11403,19 @@
         <v>241</v>
       </c>
       <c r="I256" s="2">
-        <v>255</v>
+        <v>255.0</v>
       </c>
       <c r="J256" s="2">
-        <v>1089</v>
+        <v>1089.0</v>
       </c>
       <c r="K256" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L256" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>242</v>
       </c>
@@ -11518,19 +11441,19 @@
         <v>241</v>
       </c>
       <c r="I257" s="1">
-        <v>256</v>
+        <v>256.0</v>
       </c>
       <c r="J257" s="1">
-        <v>1090</v>
+        <v>1090.0</v>
       </c>
       <c r="K257" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L257" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>247</v>
       </c>
@@ -11556,19 +11479,19 @@
         <v>241</v>
       </c>
       <c r="I258" s="1">
-        <v>257</v>
+        <v>257.0</v>
       </c>
       <c r="J258" s="1">
-        <v>1091</v>
+        <v>1091.0</v>
       </c>
       <c r="K258" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L258" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>250</v>
       </c>
@@ -11594,19 +11517,19 @@
         <v>241</v>
       </c>
       <c r="I259" s="1">
-        <v>258</v>
+        <v>258.0</v>
       </c>
       <c r="J259" s="1">
-        <v>1092</v>
+        <v>1092.0</v>
       </c>
       <c r="K259" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L259" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>252</v>
       </c>
@@ -11632,19 +11555,19 @@
         <v>241</v>
       </c>
       <c r="I260" s="1">
-        <v>259</v>
+        <v>259.0</v>
       </c>
       <c r="J260" s="1">
-        <v>1093</v>
+        <v>1093.0</v>
       </c>
       <c r="K260" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L260" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>254</v>
       </c>
@@ -11670,19 +11593,19 @@
         <v>241</v>
       </c>
       <c r="I261" s="1">
-        <v>260</v>
+        <v>260.0</v>
       </c>
       <c r="J261" s="1">
-        <v>1094</v>
+        <v>1094.0</v>
       </c>
       <c r="K261" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L261" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>256</v>
       </c>
@@ -11708,19 +11631,19 @@
         <v>241</v>
       </c>
       <c r="I262" s="1">
-        <v>261</v>
+        <v>261.0</v>
       </c>
       <c r="J262" s="1">
-        <v>1095</v>
+        <v>1095.0</v>
       </c>
       <c r="K262" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L262" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>258</v>
       </c>
@@ -11746,19 +11669,19 @@
         <v>241</v>
       </c>
       <c r="I263" s="1">
-        <v>262</v>
+        <v>262.0</v>
       </c>
       <c r="J263" s="1">
-        <v>1096</v>
+        <v>1096.0</v>
       </c>
       <c r="K263" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L263" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>261</v>
       </c>
@@ -11784,19 +11707,19 @@
         <v>241</v>
       </c>
       <c r="I264" s="1">
-        <v>263</v>
+        <v>263.0</v>
       </c>
       <c r="J264" s="1">
-        <v>1097</v>
+        <v>1097.0</v>
       </c>
       <c r="K264" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L264" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
@@ -11822,19 +11745,19 @@
         <v>241</v>
       </c>
       <c r="I265" s="1">
-        <v>264</v>
+        <v>264.0</v>
       </c>
       <c r="J265" s="1">
-        <v>1098</v>
+        <v>1098.0</v>
       </c>
       <c r="K265" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L265" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -11860,19 +11783,19 @@
         <v>241</v>
       </c>
       <c r="I266" s="2">
-        <v>265</v>
+        <v>265.0</v>
       </c>
       <c r="J266" s="2">
-        <v>1099</v>
+        <v>1099.0</v>
       </c>
       <c r="K266" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L266" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -11898,19 +11821,19 @@
         <v>241</v>
       </c>
       <c r="I267" s="1">
-        <v>266</v>
+        <v>266.0</v>
       </c>
       <c r="J267" s="1">
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="K267" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L267" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>271</v>
       </c>
@@ -11936,19 +11859,19 @@
         <v>241</v>
       </c>
       <c r="I268" s="1">
-        <v>267</v>
+        <v>267.0</v>
       </c>
       <c r="J268" s="1">
-        <v>1101</v>
+        <v>1101.0</v>
       </c>
       <c r="K268" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L268" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>273</v>
       </c>
@@ -11974,19 +11897,19 @@
         <v>241</v>
       </c>
       <c r="I269" s="2">
-        <v>268</v>
+        <v>268.0</v>
       </c>
       <c r="J269" s="2">
-        <v>1102</v>
+        <v>1102.0</v>
       </c>
       <c r="K269" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L269" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>279</v>
       </c>
@@ -12012,19 +11935,19 @@
         <v>241</v>
       </c>
       <c r="I270" s="1">
-        <v>269</v>
+        <v>269.0</v>
       </c>
       <c r="J270" s="1">
-        <v>1103</v>
+        <v>1103.0</v>
       </c>
       <c r="K270" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L270" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>439</v>
       </c>
@@ -12050,19 +11973,19 @@
         <v>241</v>
       </c>
       <c r="I271" s="2">
-        <v>270</v>
+        <v>270.0</v>
       </c>
       <c r="J271" s="2">
-        <v>1104</v>
+        <v>1104.0</v>
       </c>
       <c r="K271" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L271" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>284</v>
       </c>
@@ -12088,19 +12011,19 @@
         <v>241</v>
       </c>
       <c r="I272" s="1">
-        <v>271</v>
+        <v>271.0</v>
       </c>
       <c r="J272" s="1">
-        <v>1105</v>
+        <v>1105.0</v>
       </c>
       <c r="K272" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L272" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>286</v>
       </c>
@@ -12126,19 +12049,19 @@
         <v>241</v>
       </c>
       <c r="I273" s="1">
-        <v>272</v>
+        <v>272.0</v>
       </c>
       <c r="J273" s="1">
-        <v>1106</v>
+        <v>1106.0</v>
       </c>
       <c r="K273" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L273" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>288</v>
       </c>
@@ -12164,19 +12087,19 @@
         <v>241</v>
       </c>
       <c r="I274" s="1">
-        <v>273</v>
+        <v>273.0</v>
       </c>
       <c r="J274" s="1">
-        <v>1107</v>
+        <v>1107.0</v>
       </c>
       <c r="K274" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L274" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>290</v>
       </c>
@@ -12202,19 +12125,19 @@
         <v>241</v>
       </c>
       <c r="I275" s="1">
-        <v>274</v>
+        <v>274.0</v>
       </c>
       <c r="J275" s="1">
-        <v>1108</v>
+        <v>1108.0</v>
       </c>
       <c r="K275" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L275" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>293</v>
       </c>
@@ -12240,19 +12163,19 @@
         <v>241</v>
       </c>
       <c r="I276" s="2">
-        <v>275</v>
+        <v>275.0</v>
       </c>
       <c r="J276" s="2">
-        <v>1109</v>
+        <v>1109.0</v>
       </c>
       <c r="K276" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L276" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>296</v>
       </c>
@@ -12278,19 +12201,19 @@
         <v>241</v>
       </c>
       <c r="I277" s="1">
-        <v>276</v>
+        <v>276.0</v>
       </c>
       <c r="J277" s="1">
-        <v>1110</v>
+        <v>1110.0</v>
       </c>
       <c r="K277" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L277" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>299</v>
       </c>
@@ -12316,19 +12239,19 @@
         <v>241</v>
       </c>
       <c r="I278" s="1">
-        <v>277</v>
+        <v>277.0</v>
       </c>
       <c r="J278" s="1">
-        <v>1111</v>
+        <v>1111.0</v>
       </c>
       <c r="K278" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L278" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>301</v>
       </c>
@@ -12354,19 +12277,19 @@
         <v>241</v>
       </c>
       <c r="I279" s="1">
-        <v>278</v>
+        <v>278.0</v>
       </c>
       <c r="J279" s="1">
-        <v>1112</v>
+        <v>1112.0</v>
       </c>
       <c r="K279" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L279" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
         <v>439</v>
       </c>
@@ -12392,19 +12315,19 @@
         <v>241</v>
       </c>
       <c r="I280" s="1">
-        <v>279</v>
+        <v>279.0</v>
       </c>
       <c r="J280" s="1">
-        <v>1113</v>
+        <v>1113.0</v>
       </c>
       <c r="K280" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L280" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -12430,19 +12353,19 @@
         <v>241</v>
       </c>
       <c r="I281" s="1">
-        <v>280</v>
+        <v>280.0</v>
       </c>
       <c r="J281" s="1">
-        <v>1114</v>
+        <v>1114.0</v>
       </c>
       <c r="K281" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L281" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>309</v>
       </c>
@@ -12468,19 +12391,19 @@
         <v>241</v>
       </c>
       <c r="I282" s="1">
-        <v>281</v>
+        <v>281.0</v>
       </c>
       <c r="J282" s="1">
-        <v>1115</v>
+        <v>1115.0</v>
       </c>
       <c r="K282" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L282" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>312</v>
       </c>
@@ -12506,19 +12429,19 @@
         <v>241</v>
       </c>
       <c r="I283" s="1">
-        <v>282</v>
+        <v>282.0</v>
       </c>
       <c r="J283" s="1">
-        <v>1116</v>
+        <v>1116.0</v>
       </c>
       <c r="K283" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L283" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>317</v>
       </c>
@@ -12544,19 +12467,19 @@
         <v>241</v>
       </c>
       <c r="I284" s="1">
-        <v>283</v>
+        <v>283.0</v>
       </c>
       <c r="J284" s="1">
-        <v>1117</v>
+        <v>1117.0</v>
       </c>
       <c r="K284" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L284" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>320</v>
       </c>
@@ -12582,19 +12505,19 @@
         <v>324</v>
       </c>
       <c r="I285" s="1">
-        <v>284</v>
+        <v>284.0</v>
       </c>
       <c r="J285" s="1">
-        <v>1118</v>
+        <v>1118.0</v>
       </c>
       <c r="K285" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L285" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>325</v>
       </c>
@@ -12620,19 +12543,19 @@
         <v>324</v>
       </c>
       <c r="I286" s="1">
-        <v>285</v>
+        <v>285.0</v>
       </c>
       <c r="J286" s="1">
-        <v>1119</v>
+        <v>1119.0</v>
       </c>
       <c r="K286" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L286" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>327</v>
       </c>
@@ -12658,19 +12581,19 @@
         <v>324</v>
       </c>
       <c r="I287" s="1">
-        <v>286</v>
+        <v>286.0</v>
       </c>
       <c r="J287" s="1">
-        <v>1120</v>
+        <v>1120.0</v>
       </c>
       <c r="K287" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L287" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>329</v>
       </c>
@@ -12696,19 +12619,19 @@
         <v>324</v>
       </c>
       <c r="I288" s="1">
-        <v>287</v>
+        <v>287.0</v>
       </c>
       <c r="J288" s="1">
-        <v>1121</v>
+        <v>1121.0</v>
       </c>
       <c r="K288" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L288" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
         <v>331</v>
       </c>
@@ -12734,19 +12657,19 @@
         <v>324</v>
       </c>
       <c r="I289" s="1">
-        <v>288</v>
+        <v>288.0</v>
       </c>
       <c r="J289" s="1">
-        <v>1122</v>
+        <v>1122.0</v>
       </c>
       <c r="K289" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L289" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
         <v>333</v>
       </c>
@@ -12772,19 +12695,19 @@
         <v>324</v>
       </c>
       <c r="I290" s="1">
-        <v>289</v>
+        <v>289.0</v>
       </c>
       <c r="J290" s="1">
-        <v>1123</v>
+        <v>1123.0</v>
       </c>
       <c r="K290" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L290" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>335</v>
       </c>
@@ -12810,19 +12733,19 @@
         <v>324</v>
       </c>
       <c r="I291" s="1">
-        <v>290</v>
+        <v>290.0</v>
       </c>
       <c r="J291" s="1">
-        <v>1124</v>
+        <v>1124.0</v>
       </c>
       <c r="K291" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L291" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
         <v>337</v>
       </c>
@@ -12848,19 +12771,19 @@
         <v>324</v>
       </c>
       <c r="I292" s="1">
-        <v>291</v>
+        <v>291.0</v>
       </c>
       <c r="J292" s="1">
-        <v>1125</v>
+        <v>1125.0</v>
       </c>
       <c r="K292" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L292" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
         <v>339</v>
       </c>
@@ -12886,19 +12809,19 @@
         <v>324</v>
       </c>
       <c r="I293" s="1">
-        <v>292</v>
+        <v>292.0</v>
       </c>
       <c r="J293" s="1">
-        <v>1126</v>
+        <v>1126.0</v>
       </c>
       <c r="K293" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L293" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
         <v>341</v>
       </c>
@@ -12924,19 +12847,19 @@
         <v>324</v>
       </c>
       <c r="I294" s="1">
-        <v>293</v>
+        <v>293.0</v>
       </c>
       <c r="J294" s="1">
-        <v>1127</v>
+        <v>1127.0</v>
       </c>
       <c r="K294" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L294" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
         <v>344</v>
       </c>
@@ -12962,19 +12885,19 @@
         <v>324</v>
       </c>
       <c r="I295" s="1">
-        <v>294</v>
+        <v>294.0</v>
       </c>
       <c r="J295" s="1">
-        <v>1128</v>
+        <v>1128.0</v>
       </c>
       <c r="K295" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L295" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
         <v>346</v>
       </c>
@@ -13000,19 +12923,19 @@
         <v>324</v>
       </c>
       <c r="I296" s="1">
-        <v>295</v>
+        <v>295.0</v>
       </c>
       <c r="J296" s="1">
-        <v>1129</v>
+        <v>1129.0</v>
       </c>
       <c r="K296" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L296" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>348</v>
       </c>
@@ -13038,19 +12961,19 @@
         <v>324</v>
       </c>
       <c r="I297" s="1">
-        <v>296</v>
+        <v>296.0</v>
       </c>
       <c r="J297" s="1">
-        <v>1130</v>
+        <v>1130.0</v>
       </c>
       <c r="K297" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L297" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>350</v>
       </c>
@@ -13076,19 +12999,19 @@
         <v>324</v>
       </c>
       <c r="I298" s="1">
-        <v>297</v>
+        <v>297.0</v>
       </c>
       <c r="J298" s="1">
-        <v>1131</v>
+        <v>1131.0</v>
       </c>
       <c r="K298" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L298" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
         <v>352</v>
       </c>
@@ -13114,19 +13037,19 @@
         <v>324</v>
       </c>
       <c r="I299" s="1">
-        <v>298</v>
+        <v>298.0</v>
       </c>
       <c r="J299" s="1">
-        <v>1132</v>
+        <v>1132.0</v>
       </c>
       <c r="K299" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L299" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
         <v>356</v>
       </c>
@@ -13152,19 +13075,19 @@
         <v>324</v>
       </c>
       <c r="I300" s="1">
-        <v>299</v>
+        <v>299.0</v>
       </c>
       <c r="J300" s="1">
-        <v>1133</v>
+        <v>1133.0</v>
       </c>
       <c r="K300" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L300" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
         <v>359</v>
       </c>
@@ -13190,19 +13113,19 @@
         <v>324</v>
       </c>
       <c r="I301" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="J301" s="1">
-        <v>1134</v>
+        <v>1134.0</v>
       </c>
       <c r="K301" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L301" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
         <v>361</v>
       </c>
@@ -13228,19 +13151,19 @@
         <v>324</v>
       </c>
       <c r="I302" s="1">
-        <v>301</v>
+        <v>301.0</v>
       </c>
       <c r="J302" s="1">
-        <v>1135</v>
+        <v>1135.0</v>
       </c>
       <c r="K302" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L302" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
         <v>363</v>
       </c>
@@ -13266,19 +13189,19 @@
         <v>324</v>
       </c>
       <c r="I303" s="1">
-        <v>302</v>
+        <v>302.0</v>
       </c>
       <c r="J303" s="1">
-        <v>1136</v>
+        <v>1136.0</v>
       </c>
       <c r="K303" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L303" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
         <v>365</v>
       </c>
@@ -13304,19 +13227,19 @@
         <v>324</v>
       </c>
       <c r="I304" s="1">
-        <v>303</v>
+        <v>303.0</v>
       </c>
       <c r="J304" s="1">
-        <v>1137</v>
+        <v>1137.0</v>
       </c>
       <c r="K304" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L304" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>367</v>
       </c>
@@ -13342,19 +13265,19 @@
         <v>324</v>
       </c>
       <c r="I305" s="1">
-        <v>304</v>
+        <v>304.0</v>
       </c>
       <c r="J305" s="1">
-        <v>1138</v>
+        <v>1138.0</v>
       </c>
       <c r="K305" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L305" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>369</v>
       </c>
@@ -13380,19 +13303,19 @@
         <v>324</v>
       </c>
       <c r="I306" s="1">
-        <v>305</v>
+        <v>305.0</v>
       </c>
       <c r="J306" s="1">
-        <v>1139</v>
+        <v>1139.0</v>
       </c>
       <c r="K306" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L306" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
         <v>371</v>
       </c>
@@ -13418,19 +13341,19 @@
         <v>324</v>
       </c>
       <c r="I307" s="1">
-        <v>306</v>
+        <v>306.0</v>
       </c>
       <c r="J307" s="1">
-        <v>1140</v>
+        <v>1140.0</v>
       </c>
       <c r="K307" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L307" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
         <v>373</v>
       </c>
@@ -13456,19 +13379,19 @@
         <v>324</v>
       </c>
       <c r="I308" s="1">
-        <v>307</v>
+        <v>307.0</v>
       </c>
       <c r="J308" s="1">
-        <v>1141</v>
+        <v>1141.0</v>
       </c>
       <c r="K308" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L308" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>375</v>
       </c>
@@ -13494,19 +13417,19 @@
         <v>324</v>
       </c>
       <c r="I309" s="1">
-        <v>308</v>
+        <v>308.0</v>
       </c>
       <c r="J309" s="1">
-        <v>1142</v>
+        <v>1142.0</v>
       </c>
       <c r="K309" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L309" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2" t="s">
         <v>377</v>
       </c>
@@ -13532,19 +13455,19 @@
         <v>324</v>
       </c>
       <c r="I310" s="2">
-        <v>309</v>
+        <v>309.0</v>
       </c>
       <c r="J310" s="2">
-        <v>1143</v>
+        <v>1143.0</v>
       </c>
       <c r="K310" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L310" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2" t="s">
         <v>379</v>
       </c>
@@ -13570,19 +13493,19 @@
         <v>324</v>
       </c>
       <c r="I311" s="2">
-        <v>310</v>
+        <v>310.0</v>
       </c>
       <c r="J311" s="2">
-        <v>1144</v>
+        <v>1144.0</v>
       </c>
       <c r="K311" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L311" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
         <v>382</v>
       </c>
@@ -13608,19 +13531,19 @@
         <v>324</v>
       </c>
       <c r="I312" s="1">
-        <v>311</v>
+        <v>311.0</v>
       </c>
       <c r="J312" s="1">
-        <v>1145</v>
+        <v>1145.0</v>
       </c>
       <c r="K312" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L312" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>384</v>
       </c>
@@ -13646,19 +13569,19 @@
         <v>324</v>
       </c>
       <c r="I313" s="1">
-        <v>312</v>
+        <v>312.0</v>
       </c>
       <c r="J313" s="1">
-        <v>1146</v>
+        <v>1146.0</v>
       </c>
       <c r="K313" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L313" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>386</v>
       </c>
@@ -13684,19 +13607,19 @@
         <v>324</v>
       </c>
       <c r="I314" s="1">
-        <v>313</v>
+        <v>313.0</v>
       </c>
       <c r="J314" s="1">
-        <v>1147</v>
+        <v>1147.0</v>
       </c>
       <c r="K314" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L314" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>388</v>
       </c>
@@ -13722,19 +13645,19 @@
         <v>394</v>
       </c>
       <c r="I315" s="1">
-        <v>314</v>
+        <v>314.0</v>
       </c>
       <c r="J315" s="1">
-        <v>1148</v>
+        <v>1148.0</v>
       </c>
       <c r="K315" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L315" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>396</v>
       </c>
@@ -13760,19 +13683,19 @@
         <v>17</v>
       </c>
       <c r="I316" s="1">
-        <v>315</v>
+        <v>315.0</v>
       </c>
       <c r="J316" s="1">
-        <v>1149</v>
+        <v>1149.0</v>
       </c>
       <c r="K316" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L316" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>398</v>
       </c>
@@ -13798,19 +13721,19 @@
         <v>324</v>
       </c>
       <c r="I317" s="1">
-        <v>316</v>
+        <v>316.0</v>
       </c>
       <c r="J317" s="1">
-        <v>1150</v>
+        <v>1150.0</v>
       </c>
       <c r="K317" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L317" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2" t="s">
         <v>401</v>
       </c>
@@ -13836,19 +13759,19 @@
         <v>108</v>
       </c>
       <c r="I318" s="2">
-        <v>317</v>
+        <v>317.0</v>
       </c>
       <c r="J318" s="2">
-        <v>1151</v>
+        <v>1151.0</v>
       </c>
       <c r="K318" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L318" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>403</v>
       </c>
@@ -13874,19 +13797,19 @@
         <v>394</v>
       </c>
       <c r="I319" s="1">
-        <v>318</v>
+        <v>318.0</v>
       </c>
       <c r="J319" s="1">
-        <v>1152</v>
+        <v>1152.0</v>
       </c>
       <c r="K319" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L319" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>407</v>
       </c>
@@ -13912,24 +13835,24 @@
         <v>241</v>
       </c>
       <c r="I320" s="1">
-        <v>319</v>
+        <v>319.0</v>
       </c>
       <c r="J320" s="1">
-        <v>1153</v>
+        <v>1153.0</v>
       </c>
       <c r="K320" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L320" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>185</v>
+      <c r="B321" s="14" t="s">
+        <v>410</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>437</v>
@@ -13950,19 +13873,19 @@
         <v>152</v>
       </c>
       <c r="I321" s="1">
-        <v>320</v>
+        <v>320.0</v>
       </c>
       <c r="J321" s="1">
-        <v>1154</v>
+        <v>1154.0</v>
       </c>
       <c r="K321" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L321" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>411</v>
       </c>
@@ -13988,19 +13911,19 @@
         <v>152</v>
       </c>
       <c r="I322" s="1">
-        <v>321</v>
+        <v>321.0</v>
       </c>
       <c r="J322" s="1">
-        <v>1155</v>
+        <v>1155.0</v>
       </c>
       <c r="K322" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L322" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>413</v>
       </c>
@@ -14026,19 +13949,19 @@
         <v>152</v>
       </c>
       <c r="I323" s="1">
-        <v>322</v>
+        <v>322.0</v>
       </c>
       <c r="J323" s="1">
-        <v>1156</v>
+        <v>1156.0</v>
       </c>
       <c r="K323" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L323" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>415</v>
       </c>
@@ -14064,19 +13987,19 @@
         <v>152</v>
       </c>
       <c r="I324" s="1">
-        <v>323</v>
+        <v>323.0</v>
       </c>
       <c r="J324" s="1">
-        <v>1157</v>
+        <v>1157.0</v>
       </c>
       <c r="K324" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L324" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2" t="s">
         <v>417</v>
       </c>
@@ -14102,19 +14025,19 @@
         <v>152</v>
       </c>
       <c r="I325" s="2">
-        <v>324</v>
+        <v>324.0</v>
       </c>
       <c r="J325" s="2">
-        <v>1158</v>
+        <v>1158.0</v>
       </c>
       <c r="K325" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L325" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>419</v>
       </c>
@@ -14140,19 +14063,19 @@
         <v>218</v>
       </c>
       <c r="I326" s="1">
-        <v>325</v>
+        <v>325.0</v>
       </c>
       <c r="J326" s="1">
-        <v>1159</v>
+        <v>1159.0</v>
       </c>
       <c r="K326" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L326" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>422</v>
       </c>
@@ -14178,19 +14101,19 @@
         <v>241</v>
       </c>
       <c r="I327" s="1">
-        <v>326</v>
+        <v>326.0</v>
       </c>
       <c r="J327" s="1">
-        <v>1160</v>
+        <v>1160.0</v>
       </c>
       <c r="K327" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L327" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>424</v>
       </c>
@@ -14216,19 +14139,19 @@
         <v>394</v>
       </c>
       <c r="I328" s="1">
-        <v>327</v>
+        <v>327.0</v>
       </c>
       <c r="J328" s="1">
-        <v>1161</v>
+        <v>1161.0</v>
       </c>
       <c r="K328" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L328" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2" t="s">
         <v>426</v>
       </c>
@@ -14252,19 +14175,19 @@
         <v>241</v>
       </c>
       <c r="I329" s="2">
-        <v>328</v>
+        <v>328.0</v>
       </c>
       <c r="J329" s="2">
-        <v>1162</v>
+        <v>1162.0</v>
       </c>
       <c r="K329" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L329" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>428</v>
       </c>
@@ -14290,19 +14213,19 @@
         <v>152</v>
       </c>
       <c r="I330" s="1">
-        <v>329</v>
+        <v>329.0</v>
       </c>
       <c r="J330" s="1">
-        <v>1163</v>
+        <v>1163.0</v>
       </c>
       <c r="K330" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L330" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>430</v>
       </c>
@@ -14328,19 +14251,19 @@
         <v>152</v>
       </c>
       <c r="I331" s="1">
-        <v>330</v>
+        <v>330.0</v>
       </c>
       <c r="J331" s="1">
-        <v>1164</v>
+        <v>1164.0</v>
       </c>
       <c r="K331" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L331" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>433</v>
       </c>
@@ -14366,19 +14289,19 @@
         <v>152</v>
       </c>
       <c r="I332" s="1">
-        <v>331</v>
+        <v>331.0</v>
       </c>
       <c r="J332" s="1">
-        <v>1165</v>
+        <v>1165.0</v>
       </c>
       <c r="K332" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L332" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>435</v>
       </c>
@@ -14404,19 +14327,19 @@
         <v>108</v>
       </c>
       <c r="I333" s="1">
-        <v>332</v>
+        <v>332.0</v>
       </c>
       <c r="J333" s="1">
-        <v>1166</v>
+        <v>1166.0</v>
       </c>
       <c r="K333" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L333" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>442</v>
       </c>
@@ -14432,15 +14355,684 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1">
-        <v>333</v>
+        <v>333.0</v>
       </c>
       <c r="J334" s="1"/>
       <c r="K334" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L334" s="1"/>
     </row>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>